--- a/public/upload/file/teacher.xlsx
+++ b/public/upload/file/teacher.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -51,14 +51,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -68,7 +68,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -81,17 +81,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>手机号(</t>
+      <t>资历(</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>此项必填</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>暂时无需填写，导入后进入系统修改</t>
     </r>
     <r>
       <rPr>
@@ -111,32 +111,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>资历</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
+      <t>手机号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>暂时无需填写，导入后进入系统修改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
+      <t>(此项必填)</t>
     </r>
   </si>
   <si>
@@ -153,7 +138,7 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -171,6 +156,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>身份证</t>
     </r>
     <r>
@@ -185,6 +177,53 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>生日(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>格式为:1970/01/01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>简历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(非必填,最多2000字)</t>
+    </r>
+  </si>
+  <si>
     <t>黄老师</t>
   </si>
   <si>
@@ -197,6 +236,9 @@
     <t>432136339633415325</t>
   </si>
   <si>
+    <t>十年吉他教学经验</t>
+  </si>
+  <si>
     <t>李老师</t>
   </si>
   <si>
@@ -207,6 +249,9 @@
   </si>
   <si>
     <t>545415151515141339</t>
+  </si>
+  <si>
+    <t>五年钢琴教学经验</t>
   </si>
 </sst>
 </file>
@@ -214,13 +259,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,16 +294,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,9 +335,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -281,97 +350,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -379,29 +357,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -414,6 +441,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -430,13 +464,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,7 +578,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,151 +596,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,41 +661,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,20 +687,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,147 +723,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -878,9 +912,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,6 +925,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1218,74 +1252,94 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="43" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
         <v>13823831820</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="9">
+        <v>29536</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
         <v>13823888888</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="9">
+        <v>36486</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
